--- a/invoices_functions/reverse_invoices/nc_parciales_ind_meli_20240327.xlsx
+++ b/invoices_functions/reverse_invoices/nc_parciales_ind_meli_20240327.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,31 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SO2791474</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2000007699310242</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>389.7</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>INV/8202/65547</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
